--- a/500all/speech_level/speeches_CHRG-114hhrg20615.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20615.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400285</t>
   </si>
   <si>
-    <t>Tim Murphy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murphy. Good morning. We are here today at the Oversights and Investigations hearing on unlawful reinsurance payments to examine the transitional reinsurance program established under the Patient Protection and Affordable Care Act.    The administration has inexplicably changed its position on a major component of this program and specifically how reinsurance payments are allocated. Despite issuing two final rules that allocated a portion of the reinsurance payments to the U.S. Treasury, CMS changed its position to prioritize payments to insurers. Essentially, CMS ruled that the Treasury doesn't get any money until the insurers get paid.    CMS' latest interpretation contradicts the plain language of the law. Repeatedly, this interpretation contradicts the plain language of the law. This is just the latest in a long line of examples of the administration breaking its own signature law in an attempt to prop it up.    The reinsurance program was created to provide financial assistance to insurance companies who offered plans through Obamacare. The program incentivizes insurance companies to continue selling plans through healthcare.gov and State exchanges because it compensates them for enrolling high risk individuals. Final payments for this 3-year program will end in 2017.    For each enrollee, insurance companies contribute a set dollar amount to the program, and then the funds collected are distributed to insurers who enroll the highest risk individuals. Built into this program was a deficit reduction measure, a proportion of each individual contribution is allocated to the Treasury. The statute estimates that approximately $5 billion would be designated to the Treasury through this program with $20 billion going to insurers.    On March 11th, 2014, CMS issued a rule that spelled out how to divide the fund between Treasury, insurance companies, and administrative costs. CMS wrote that Treasury would receive about 25 percent of the fund in 2015.    But while insurers have received billions of dollars from the program, the Treasury has still received nothing. That is because CMS changed its mind ten days later after issuing its final March 11th, 2014 rule. Ten days later, CMS published a rule completely reversing its policy position. In the new rule, CMS prioritized payments to insurers over payments to the Treasury and in short Treasury gets nothing until insurers are paid in full. CMS finalized this rule in May of 2014.    But why did CMS dramatically reverse its own policy to favor insurance companies? We look forward to getting a straight answer from CMS today. We do know there is a cozy relationship between insurance companies and this administration, and the administration has worked to incentivize insurers to stick with the exchanges. In fact, we know that insurers have even emailed top White House officials begging for more taxpayer money to lower premiums and keep insurers selling Affordable Care Act plans.    I expect Mr. Slavitt will attempt to justify why CMS changed its interpretation of the law, and he may argue that the statute is ambiguous or silent about what to do if the fund doesn't collect the full amount. However, the statute clearly states in this statement here that the portion of the contribution intended for the Treasury shall be deposited into the general fund of the Treasury of the United States and may not be used for a reinsurance program. This means that each contribution includes a portion intended just for the Treasury and CMS cannot divert those funds to pay insurance companies instead.    Now the nonpartisan Congressional Research Service agrees with us that the statute is not ambiguous and it is not silent on the issue. CRS analyzed the statute and CMS' interpretations. The CRS found that the statute, quote, unambiguously states that each issuer's contribution contain an amount that reflect its proportionate share of the U.S. Treasury contribution and that these amounts should be deposited in the general fund of the U.S. Treasury, unquote.    Mr. Slavitt may also argue that neither the law nor CMS contemplated what to do if the reinsurance fund came up short of the target amounts. The law states, however, that a portion of what is collected must go to the Treasury. Moreover, CMS did contemplate what would happen if the fund did not collect enough money. In its final rule issued March 11th, 2014, CMS predicted there would be a variance between the statutory benchmark and actual amount received through the program.    When asked about the legal basis for diverting these funds at a February 24th, 2016, hearing before our Subcommittee on Health, Secretary Burwell provided no legal justification. The Secretary emphasized that this program is temporary, implying the committee's concerns are unimportant because the program will be over in 2017.    I disagree. I think this issue holds the utmost importance. CMS' actions exemplify a problem that goes beyond just this one Affordable Care Act program. When the executive branch decides to reprioritize the budget and divert money intended for the Treasury it is a concern for Congress. When CMS officials decide to ignore a clear mandate from Congress it is an affront to this legislative body.    The administration cannot rewrite its own law to make it more convenient for special interests. This sets a dangerous precedent and is an affront to the separation of powers. Moreover, this program funnels money to insurers, now with money intended for the Treasury, in an attempt to prop up the Affordable Care Act.    What will happen when this program runs out and there is no mechanism to underwrite high risk individuals who sign up on the exchanges? Will more insurers drop out? Will premiums raise even higher? The administration's actions appear to be trying to delay the inevitable, the collapse of the Affordable Care Act if it is not reformed.    I thank Mr. Slavitt for being here today. I know he and I have talked many times, and I appreciate his candor with me, and I hope that he will pledge to return CMS' first, lawful interpretation of the reinsurance program and allocate funds to Treasury as required by law.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400101</t>
   </si>
   <si>
-    <t>Diana DeGette</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DeGette. Thanks, Mr. Chairman. Well, I guess nobody here is surprised we are having yet another Oversight hearing on the Affordable Care Act. This subcommittee has had 16 oversight hearings on the act since it was passed, and also we have sent dozens of oversight letters to the Department of Health and Human Services, to CMS, and others, pertaining to the Affordable Care Act.    I know for a fact the agencies have spent countless staff hours and taxpayer dollars preparing testimony for hearings responding to these letters and providing documents, information and briefings to satisfy the committee's oversight interests.    Now I just want to ask one question. Has anything of value been achieved through these efforts? Have we actually changed or modified the Affordable Care Act to work better? No, we haven't. Now listen, I believe in Government oversight. In fact, I have urged the chairman of the full committee and you, Mr. Chairman, to have meaningful oversight hearings around the Affordable Care Act because I do believe there are some things that can be fixed.    But, you know, good Government illuminates the shortcomings and causes of institutional failures and thereby it informs any substantive changes in public policy. Unfortunately, our oversight over the act over the last 6 years has served neither to enlighten the committee, improve the law nor help millions of Americans. And I just use, for example, of what we are doing here today is the hashtag that the majority is using on social media, hashtag Great Obamacare Heist, or some of the inflammatory statements in the press release that the majority sent out about today's hearing and why we are having it.    Now you have heard over and over again for 6 years that the ACA is destroying the lives of Americans, and also you just heard that the administration has not followed the law. I mean, I think that there may be a matter of misinterpretation or different interpretation, but nobody can argue that 20 million new Americans have insurance because of the Affordable Care Act.    In this press release I just referenced, my colleagues describe the reinsurance program which is the topic of today's hearing as a, quote, ``taxpayer-funded giveaway.'' Now this is a program, the reinsurance program, that the majority understood was necessary and in fact put in their own bill on Medicare Part D when they passed that in 2005.    The reason we have the ACA reinsurance program is because it helped us transition from an individual market that relied on medical underwriting to one in which insurers can no longer discriminate against individuals for preexisting conditions and cannot decline to offer coverage to somebody because they are sick. This temporary transitional program achieves this goal by collecting contributions from insurance companies which are then in turn used to make payments to insurance companies in the individual market which will offset the largest claims for the sickest individuals. I would hardly call that a taxpayer funded giveaway.    This self-same press release also described the administration's decision to prioritize reinsurance payments to insurers as, quote, unlawful. You just heard that in the chairman's statement. Now this rhetoric is also unfair and inaccurate, because what we have here is a difference of opinion regarding a policy decision and a difference of views on how to interpret a provision of the ACA.    So I look forward to hearing about those differences today, but unlawful again seems to be a little bit extreme.    Now, I just want to put this in perspective, and I want to read an excerpt of a letter from Brent Brown to President Obama. Brent Brown is a lifelong Republican who recently introduced the President at a speech in Milwaukee, Wisconsin, and here is what he said.    Quote, I did not vote for you either time. I have voted Republican for the entirety of my life. I proudly wore pins and planted banners displaying my Republican loyalty. I was very vocal in my opposition to you, particularly the ACA. Before I briefly explain my story, allow me to say this. I am so very sorry. I was so very wrong. You saved my life, Mr. President. You saved my life and I am eternally grateful. I have a preexisting condition and so could never purchase health insurance. Only after the ACA came into being could I be covered. Put simply to take not too much of your time if you are in fact taking the time to read this, I would not be alive without access to the care I received due to your law.    Mr. Chairman, I would like unanimous consent to enter Mr. Brown's letter to the record.</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>400414</t>
   </si>
   <si>
-    <t>Fred Upton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Upton. Thank you, Mr. Chairman. This hearing does continue the subcommittee's thoughtful and necessary oversight of the President's healthcare law. Today, the three-and-half-billion-dollar question is why CMS is now diverting taxpayer dollars to insurance companies without any legal authority to do so.    Health law statute plainly states that a portion of the contributions to the reinsurance program must be given to the U.S. Treasury. Still, CMS has chosen to violate the law by prioritizing reinsurance contributions to health insurers rather than allocating the required portion to the U.S. Treasury.    Initially, CMS followed the letter of the law and according to its final rule issued on March 11th, 2014, and similar to its rule the prior year, CMS planned to allocate contributions to the reinsurance program between the health insurers, the Treasury, and administrative costs. Less than two weeks later, however, on March 31st, 2014, CMS switched gears and issued a different proposed rule completely reversing their previous position.    Rather than allocating a portion of the contribution to the Treasury as dictated by law, CMS instead prioritized reinsurance contributions to health insurers and finalized the rule two months later. So why, the question is why the sudden reversal to redirect billions away from the taxpayer?    Legal memorandum released earlier this year by the nonpartisan CRS found that the statute does not permit CMS to prioritize reinsurance payments to insurers. In fact, the Congressional Research Service found that CMS' actions appear to contradict the plain language of the law.    I would like to think that you have come to provide us some answers to those questions today as we look to understand the who, what, when, where, and why of that decision. The American public deserves answers and we look forward to that discussion. I yield back.</t>
   </si>
   <si>
@@ -94,9 +85,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman. When we passed the Affordable Care Act into law more than 6 years ago, we dramatically changed the healthcare landscape in this country and the law has been a historic success. It has achieved its goals and made access to comprehensive health care a reality for the American people. Thanks to the Affordable Care Act, 20 million more Americans now know the security of health insurance, and for the first time ever the uninsured rate has fallen below ten percent. And these are remarkable achievements.    Before the Affordable Care Act was passed, the insurance system in this country was broken. Even my Republican colleagues who were obsessed with repealing the law acknowledge that this is the case.    Absolutely no one is advocating for returning to the old system of rapidly rising costs, gross inefficiencies, and painful inequalities. It was a system where upwards of 129 million Americans, nearly one in two people, could be discriminated against in the individual market for preexisting medical conditions ranging from diabetes to breast cancer to pregnancy. And these individuals could be charged more than a healthy person for the same coverage and were often denied coverage all together. Many insurance plans lacked important benefits and limited coverage.    Fortunately, thanks to the Affordable Care Act, these things are no longer true. People who were previously deemed uninsurable because of preexisting conditions are finally getting health insurance coverage and this has meant a big change in how insurance companies do business.    Under the old system, insurers sought to protect their bottom lines by avoiding the sickest and costliest patients in the individual market, a practice known as medical underwriting. Today, insurers must offer coverage to everyone and they cannot cancel someone's policy because he or she gets sick.    The law's temporary reinsurance program operates to smooth this transition from a medically underwritten individual insurance market to one in which everyone is guaranteed coverage. Simply put, the reinsurance program spreads the cost of large insurance claims for very sick individuals across all insurers, helping to stabilize premiums during the early years of the new marketplace. The program collects contributions from health insurance companies, which are then used to make payments to the insurance companies in the individual market to offset the costs of their sickest enrollees.    Now my Republican colleagues on this committee have called these payments, quote, handouts to insurance companies, and I quote, taxpayer funded giveaways. And neither of these things is true. The reinsurance program is a temporary program funded entirely by contributions from insurance companies to smooth the transition from a medically underwritten market to one where everyone is guaranteed coverage.    Unfortunately, this type of overblown rhetoric and blatant misinformation is typical when it comes to my Republican colleagues and the Affordable Care Act. In fact, this same framework is a permanent fixture of our Part D program, a law that Republicans support, defend and promote. And I just find it ironic and hypocritical that this framework is acceptable for Medicare Part D, which was signed into law by a Republican President, but it is supposedly a taxpayer funded giveaway under a healthcare law from a Democratic President. You can't have it both ways.    They have used similar rhetoric to describe the administration's decision to prioritize reinsurance payments to insurers over payments to the U.S. Treasury, the subject of today's hearing. For instance, a March 22, 2016 press release from the majority describes, and I quote, CMS' decision to loot billions from the Treasury to pay off insurance companies and calls on the agency, and I quote again, to stop unlawful payments to insurers. And these characterizations by the GOP are simply absurd.    Let's be clear. What is at stake here is simply a policy disagreement about how to interpret statutory language in the Affordable Care Act. The administration has interpreted the law through a formal, transparent notice and comment rulemaking process. It determined that the statute is silent on what the agency should do in the event that collections are insufficient to fully fund both payments to insurance companies and payments to the U.S. Treasury. It then concluded that in the event of a shortfall, payments to insurers should be prioritized and that this prioritization furthers the statutory goals of the program.    I know my Republican colleagues clearly disagree with this interpretation and they are entitled to their view. But the hyperbole and the misinformation is counterproductive and does nothing to help a single person get health insurance.    So let me just conclude by expressing my disappointment in the direction this committee continues to take in conducting oversight of the Affordable Care Act. Hearings like this only serve to hurt Americans and reverse the progress that has been made for the millions who now benefit from the law. And I believe we should instead work to improve the law and ensure all of our constituents have access to the quality, affordable health care they deserve.    I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -106,9 +94,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Slavitt</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Slavitt. I do not.</t>
   </si>
   <si>
@@ -295,9 +280,6 @@
     <t>412487</t>
   </si>
   <si>
-    <t>David B. McKinley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman. And I would like to follow up a little bit on the comments that were made when Chairman Murphy raised about the change of opinions and decisions that have been made under this administration.    Administrator, thank you for coming back. It is good to see you again. But small rural hospitals all across this country are in dire shape. We know that nearly 60 hospitals have closed over the last 5 years in these rural hospitals. In my State, over half the critical access hospitals are operating rural health clinics and they are being adversely impacted by CMS' decision to disallow the cost of operating these rural health clinics.    Now this is in contrary to a previous decision that approved it back in 2004, said that very specifically that you could include the cost. Now it has been a reversal. CMS apparently intends to enforce this new decision retroactively over 5 years, and the cumulative impact of this on rural health clinics and critical access hospitals in West Virginia is going to force a back payment of millions of dollars when they can barely afford to keep their doors open as they speak.    Now these hospitals as you well know are treating our poor and our most vulnerable citizens in rural communities. Just last week, West Virginia's Health and Human Resources wrote you all, CMS, a letter. Are you aware of that letter?</t>
   </si>
   <si>
@@ -358,9 +340,6 @@
     <t>412195</t>
   </si>
   <si>
-    <t>Kathy Castor</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Castor. Thank you, Mr. Chairman. Good morning, Mr. Slavitt.</t>
   </si>
   <si>
@@ -391,9 +370,6 @@
     <t>400052</t>
   </si>
   <si>
-    <t>Michael C. Burgess</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Burgess. Thank you, Mr. Chairman. Thank you, Administrator Slavitt, for joining us here in our committee again. I think it is important that we continue to have these types of discussions.    Certainly in the very early days of President Obama's administration the statement was made repeatedly that transparency would abound in this healthcare law. In many ways it was meant as a criticism to Republicans that boy, if your member is not on board with this everybody will know it; if your member is standing with the insurance companies and not with the administration everybody is going to know it because it is all going to be transparent. It is all going to be on C-SPAN, and then we found that it wasn't.    And in fact, even going back to 2009 when Henry Waxman was chairman of this committee, I submitted a resolution of inquiry asking for who was involved in crafting the things that eventually became known as the Affordable Care Act. And to my surprise, Mr. Waxman agreed about halfway with me and agreed that I should have seven of the 11 things that I asked for. I never got them, but it was a minor moral victory for me that I got Mr. Waxman's concurrence during that. And as we have gone on through this, time after time we bump up against things where it just doesn't seem like it all adds up.    So at this point can you tell me which person, official, office within CMS is responsible for interacting with HHS leadership with the White House on these reinsurance payments? Is there a single individual or office?</t>
   </si>
   <si>
@@ -460,9 +436,6 @@
     <t>412550</t>
   </si>
   <si>
-    <t>Richard Hudson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hudson. Thank you, Mr. Chairman. And thank you, sir, for being here today. I heard you answer an earlier question about that once the transitional reinsurance program ends in 2017, the question of given that United Health pulled out were you concerned about other companies pulling out of the program, and you indicated that you didn't think there was much concern of that.    But I am just curious as you are looking at that who are you discussing this with? Are you talking to folks in the marketplace? How are you basing your decision that you think the market is stabilized?</t>
   </si>
   <si>
@@ -502,9 +475,6 @@
     <t>400653</t>
   </si>
   <si>
-    <t>Al Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman. Administrator Slavitt, thank you for being here today, and I want to thank you for making the Affordable Care Act and health reform work.    It first rolled out in our district in a very urban area of Houston. Before the Affordable Care Act we were one of the highest in the country of people who worked but didn't get insurance through their employer. When it first rolled out we identified 20,000 people who were able to get health insurance and each renewable time we have increased that.    My frustration is that just recently we identified 50,000 of my constituents in urban Houston would be able to get health care if the State would have expanded Medicaid, 50,000 just in our district, and that is with a hundred percent Federal reimbursement to State. Not a penny of State dollars for 3 years would have to go to that, so it is just frustrating.    My colleagues have been throwing around the 3.5 billion figure. It is even part of today's title, but I think it is important to talk about that number in context. Last month, the Congressional Budget Office came out with a new Affordable Care Act estimate stating that, quote, compared with the projection made by CBO and JCT, the Joint Committee on Taxation, in March of 2010 just before the ACA was enacted, the current estimate of the net cost of insurance coverage over the 2016 to '19 period is lower by $157 billion, lowered by 25 percent. And I repeat: $157 billion under budget. That is not something we see here in the halls of Congress very often. That is 157 billion left in the Treasury.    And I know that the insurance market and these estimates are complex, and we have been talking about how important reinsurance has been in creating stability in the market while new consumer protections are created. My first question, is it fair to say that reinsurance has played at least a role in the success covering so many people while coming in substantially under budget?</t>
   </si>
   <si>
@@ -547,9 +517,6 @@
     <t>400032</t>
   </si>
   <si>
-    <t>Marsha Blackburn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Blackburn. Yes, thank you.</t>
   </si>
   <si>
@@ -634,9 +601,6 @@
     <t>412568</t>
   </si>
   <si>
-    <t>Markwayne Mullin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, Mr. Chairman. And thank you for being here today and thank you for hanging over as we had to run and vote. They don't seem to care about hearings. They just call votes whenever.    Anyways, look, there is a couple of questions that I think is very important to us so we can get an understanding. One, if you could answer this the best you can. I understand that on March 21st, 2014, HHS issued a proposed rule for making payments that are required by law under the reinsurance program. It is my understanding that this rule accurately reflect what was required by statute, the payments being made in three areas, one to the Treasury, insurance companies and to cover administration costs; is that correct?</t>
   </si>
   <si>
@@ -743,9 +707,6 @@
   </si>
   <si>
     <t>412480</t>
-  </si>
-  <si>
-    <t>Bill Flores</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Flores. Thank you, Chairman. And thank you, Mr. Slavitt, for joining us today. A couple of preambles I wanted to share with you, and I know you have heard a couple of these already, before we get into the questions.    The CRS memo that we have talked about earlier today determined that the statute is not ambiguous and that CMS actions contradict the plain language of the law. And then in February of 2016, in front of the Health Subcommittee of this committee, Secretary Burwell was asked about the legal basis for diverting the funds and she provided no legal justification.    So it seems to me like we are still struggling to find the legal justification under which the funds were diverted. I do have some fact based questions to start with. The first one is how much money have you collected for the reinsurance program in 2014 from all the States?</t>
@@ -1279,11 +1240,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1305,11 +1264,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1329,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1357,11 +1312,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1381,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1409,11 +1360,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1433,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1461,11 +1408,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1485,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1513,11 +1456,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1537,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1565,11 +1504,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1589,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1617,11 +1552,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1643,11 +1576,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1667,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1695,11 +1624,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1721,11 +1648,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1745,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1773,11 +1696,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1797,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1825,11 +1744,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1849,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1877,11 +1792,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1901,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1929,11 +1840,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1953,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1981,11 +1888,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2005,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2033,11 +1936,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2057,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2083,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2109,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2135,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2161,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2187,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2213,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2239,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2265,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2291,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2317,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2343,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2369,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2395,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2421,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2447,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2473,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2499,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2525,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2551,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2577,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2603,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2629,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2655,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G55" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2681,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2707,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2733,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2759,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2785,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2811,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2837,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2863,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2889,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2915,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2941,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2967,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2993,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3019,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3045,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3071,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3097,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3123,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3149,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3175,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3203,11 +3016,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3227,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>92</v>
-      </c>
-      <c r="G77" t="s">
-        <v>93</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3253,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
-      </c>
-      <c r="G78" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3279,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>92</v>
-      </c>
-      <c r="G79" t="s">
-        <v>93</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3305,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
-      </c>
-      <c r="G80" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3331,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
+        <v>87</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
         <v>92</v>
-      </c>
-      <c r="G81" t="s">
-        <v>93</v>
-      </c>
-      <c r="H81" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3357,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
-      </c>
-      <c r="G82" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3383,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>92</v>
-      </c>
-      <c r="G83" t="s">
-        <v>93</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3409,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
-      </c>
-      <c r="G84" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3435,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>92</v>
-      </c>
-      <c r="G85" t="s">
-        <v>93</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3461,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
-      </c>
-      <c r="G86" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3487,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>92</v>
-      </c>
-      <c r="G87" t="s">
-        <v>93</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3513,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
-      </c>
-      <c r="G88" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3539,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>92</v>
-      </c>
-      <c r="G89" t="s">
-        <v>93</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3565,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
-      </c>
-      <c r="G90" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3591,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>92</v>
-      </c>
-      <c r="G91" t="s">
-        <v>93</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3617,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
-      </c>
-      <c r="G92" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3643,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>92</v>
-      </c>
-      <c r="G93" t="s">
-        <v>93</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3669,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
-      </c>
-      <c r="G94" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3697,11 +3472,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3721,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>113</v>
-      </c>
-      <c r="G96" t="s">
-        <v>114</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3747,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
-      </c>
-      <c r="G97" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3773,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>113</v>
-      </c>
-      <c r="G98" t="s">
-        <v>114</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3799,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
-      </c>
-      <c r="G99" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3825,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>113</v>
-      </c>
-      <c r="G100" t="s">
-        <v>114</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3851,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
-      </c>
-      <c r="G101" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3877,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>113</v>
-      </c>
-      <c r="G102" t="s">
+        <v>107</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
         <v>114</v>
-      </c>
-      <c r="H102" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3903,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G103" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3929,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>113</v>
-      </c>
-      <c r="G104" t="s">
-        <v>114</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3957,11 +3712,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3981,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>124</v>
-      </c>
-      <c r="G106" t="s">
-        <v>125</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4007,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
-      </c>
-      <c r="G107" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4033,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>124</v>
-      </c>
-      <c r="G108" t="s">
-        <v>125</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4059,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
-      </c>
-      <c r="G109" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4085,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>124</v>
-      </c>
-      <c r="G110" t="s">
-        <v>125</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4111,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
-      </c>
-      <c r="G111" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4137,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
+        <v>117</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
         <v>124</v>
-      </c>
-      <c r="G112" t="s">
-        <v>125</v>
-      </c>
-      <c r="H112" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4163,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
-      </c>
-      <c r="G113" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4189,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>124</v>
-      </c>
-      <c r="G114" t="s">
-        <v>125</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4215,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>124</v>
-      </c>
-      <c r="G115" t="s">
-        <v>125</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4241,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
-      </c>
-      <c r="G116" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4267,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>124</v>
-      </c>
-      <c r="G117" t="s">
-        <v>125</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4293,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
-      </c>
-      <c r="G118" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4319,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>124</v>
-      </c>
-      <c r="G119" t="s">
-        <v>125</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4345,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
-      </c>
-      <c r="G120" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4371,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>124</v>
-      </c>
-      <c r="G121" t="s">
-        <v>125</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4397,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
-      </c>
-      <c r="G122" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4423,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>124</v>
-      </c>
-      <c r="G123" t="s">
-        <v>125</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4449,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
-      </c>
-      <c r="G124" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4475,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>124</v>
-      </c>
-      <c r="G125" t="s">
-        <v>125</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4503,11 +4216,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4527,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>147</v>
-      </c>
-      <c r="G127" t="s">
-        <v>148</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4553,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
-      </c>
-      <c r="G128" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4579,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>147</v>
-      </c>
-      <c r="G129" t="s">
-        <v>148</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4605,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
-      </c>
-      <c r="G130" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4631,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>147</v>
-      </c>
-      <c r="G131" t="s">
-        <v>148</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4657,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
-      </c>
-      <c r="G132" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4683,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>147</v>
-      </c>
-      <c r="G133" t="s">
-        <v>148</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4709,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
-      </c>
-      <c r="G134" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4735,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>147</v>
-      </c>
-      <c r="G135" t="s">
+        <v>139</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
         <v>148</v>
-      </c>
-      <c r="H135" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4761,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
-      </c>
-      <c r="G136" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4787,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>147</v>
-      </c>
-      <c r="G137" t="s">
-        <v>148</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4815,11 +4504,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4839,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>161</v>
-      </c>
-      <c r="G139" t="s">
-        <v>162</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4865,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
-      </c>
-      <c r="G140" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4891,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>161</v>
-      </c>
-      <c r="G141" t="s">
-        <v>162</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4917,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
-      </c>
-      <c r="G142" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4943,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>161</v>
-      </c>
-      <c r="G143" t="s">
-        <v>162</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4969,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
-      </c>
-      <c r="G144" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4995,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>161</v>
-      </c>
-      <c r="G145" t="s">
-        <v>162</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5021,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
-      </c>
-      <c r="G146" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5047,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
+        <v>152</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
         <v>161</v>
-      </c>
-      <c r="G147" t="s">
-        <v>162</v>
-      </c>
-      <c r="H147" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5073,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
-      </c>
-      <c r="G148" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5099,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>161</v>
-      </c>
-      <c r="G149" t="s">
+        <v>152</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
         <v>162</v>
-      </c>
-      <c r="H149" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5125,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
-      </c>
-      <c r="G150" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5151,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>161</v>
-      </c>
-      <c r="G151" t="s">
-        <v>162</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5179,11 +4840,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5203,13 +4862,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>176</v>
-      </c>
-      <c r="G153" t="s">
-        <v>177</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5231,11 +4888,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5255,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>176</v>
-      </c>
-      <c r="G155" t="s">
-        <v>177</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5281,13 +4934,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
-      </c>
-      <c r="G156" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5307,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>176</v>
-      </c>
-      <c r="G157" t="s">
-        <v>177</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5333,13 +4982,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G158" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5359,13 +5006,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>176</v>
-      </c>
-      <c r="G159" t="s">
-        <v>177</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5385,13 +5030,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
-      </c>
-      <c r="G160" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5411,13 +5054,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>176</v>
-      </c>
-      <c r="G161" t="s">
-        <v>177</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5437,13 +5078,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
-      </c>
-      <c r="G162" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5463,13 +5102,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>176</v>
-      </c>
-      <c r="G163" t="s">
+        <v>166</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
         <v>177</v>
-      </c>
-      <c r="H163" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5489,13 +5126,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
-      </c>
-      <c r="G164" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5515,13 +5150,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>176</v>
-      </c>
-      <c r="G165" t="s">
-        <v>177</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5541,13 +5174,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
-      </c>
-      <c r="G166" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5567,13 +5198,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>176</v>
-      </c>
-      <c r="G167" t="s">
-        <v>177</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5593,13 +5222,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
-      </c>
-      <c r="G168" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5619,13 +5246,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>176</v>
-      </c>
-      <c r="G169" t="s">
-        <v>177</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5645,13 +5270,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
-      </c>
-      <c r="G170" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5671,13 +5294,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>176</v>
-      </c>
-      <c r="G171" t="s">
-        <v>177</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5697,13 +5318,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
-      </c>
-      <c r="G172" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5723,13 +5342,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>176</v>
-      </c>
-      <c r="G173" t="s">
-        <v>177</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5749,13 +5366,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
-      </c>
-      <c r="G174" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5775,13 +5390,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>176</v>
-      </c>
-      <c r="G175" t="s">
-        <v>177</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5801,13 +5414,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>29</v>
-      </c>
-      <c r="G176" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5827,13 +5438,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>176</v>
-      </c>
-      <c r="G177" t="s">
-        <v>177</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5853,13 +5462,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
-      </c>
-      <c r="G178" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5879,13 +5486,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>176</v>
-      </c>
-      <c r="G179" t="s">
-        <v>177</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5907,11 +5512,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>12</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5933,11 +5536,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5957,13 +5558,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>205</v>
-      </c>
-      <c r="G182" t="s">
-        <v>206</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5983,13 +5582,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>29</v>
-      </c>
-      <c r="G183" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6009,13 +5606,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>205</v>
-      </c>
-      <c r="G184" t="s">
-        <v>206</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6035,13 +5630,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
-      </c>
-      <c r="G185" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6061,13 +5654,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>205</v>
-      </c>
-      <c r="G186" t="s">
-        <v>206</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6087,13 +5678,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>29</v>
-      </c>
-      <c r="G187" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6113,13 +5702,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>205</v>
-      </c>
-      <c r="G188" t="s">
-        <v>206</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6139,13 +5726,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
-      </c>
-      <c r="G189" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6165,13 +5750,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>205</v>
-      </c>
-      <c r="G190" t="s">
-        <v>206</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6191,13 +5774,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>29</v>
-      </c>
-      <c r="G191" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6217,13 +5798,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>205</v>
-      </c>
-      <c r="G192" t="s">
-        <v>206</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6243,13 +5822,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>29</v>
-      </c>
-      <c r="G193" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6269,13 +5846,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>205</v>
-      </c>
-      <c r="G194" t="s">
-        <v>206</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6295,13 +5870,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>29</v>
-      </c>
-      <c r="G195" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6321,13 +5894,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>205</v>
-      </c>
-      <c r="G196" t="s">
+        <v>194</v>
+      </c>
+      <c r="G196" t="s"/>
+      <c r="H196" t="s">
         <v>206</v>
-      </c>
-      <c r="H196" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6347,13 +5918,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>29</v>
-      </c>
-      <c r="G197" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6373,13 +5942,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>205</v>
-      </c>
-      <c r="G198" t="s">
-        <v>206</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6399,13 +5966,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
-      </c>
-      <c r="G199" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6425,13 +5990,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>205</v>
-      </c>
-      <c r="G200" t="s">
-        <v>206</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6451,13 +6014,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>29</v>
-      </c>
-      <c r="G201" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6477,13 +6038,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>205</v>
-      </c>
-      <c r="G202" t="s">
-        <v>206</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6503,13 +6062,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>29</v>
-      </c>
-      <c r="G203" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6529,13 +6086,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>205</v>
-      </c>
-      <c r="G204" t="s">
-        <v>206</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6555,13 +6110,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>29</v>
-      </c>
-      <c r="G205" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6581,13 +6134,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>205</v>
-      </c>
-      <c r="G206" t="s">
-        <v>206</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6607,13 +6158,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>29</v>
-      </c>
-      <c r="G207" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6633,13 +6182,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>205</v>
-      </c>
-      <c r="G208" t="s">
-        <v>206</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6659,13 +6206,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>29</v>
-      </c>
-      <c r="G209" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6685,13 +6230,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>205</v>
-      </c>
-      <c r="G210" t="s">
-        <v>206</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6711,13 +6254,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>29</v>
-      </c>
-      <c r="G211" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6737,13 +6278,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>205</v>
-      </c>
-      <c r="G212" t="s">
-        <v>206</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6763,13 +6302,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>29</v>
-      </c>
-      <c r="G213" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6789,13 +6326,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>205</v>
-      </c>
-      <c r="G214" t="s">
-        <v>206</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6815,13 +6350,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>29</v>
-      </c>
-      <c r="G215" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6841,13 +6374,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>205</v>
-      </c>
-      <c r="G216" t="s">
-        <v>206</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6867,13 +6398,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>29</v>
-      </c>
-      <c r="G217" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6893,13 +6422,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>205</v>
-      </c>
-      <c r="G218" t="s">
-        <v>206</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6919,13 +6446,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>29</v>
-      </c>
-      <c r="G219" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6945,13 +6470,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>205</v>
-      </c>
-      <c r="G220" t="s">
-        <v>206</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6973,11 +6496,9 @@
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221" t="s">
-        <v>12</v>
-      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6997,13 +6518,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>242</v>
-      </c>
-      <c r="G222" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7023,13 +6542,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>29</v>
-      </c>
-      <c r="G223" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7049,13 +6566,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>242</v>
-      </c>
-      <c r="G224" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7075,13 +6590,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>29</v>
-      </c>
-      <c r="G225" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7101,13 +6614,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>242</v>
-      </c>
-      <c r="G226" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7127,13 +6638,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
-      </c>
-      <c r="G227" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7153,13 +6662,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>242</v>
-      </c>
-      <c r="G228" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7179,13 +6686,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>29</v>
-      </c>
-      <c r="G229" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7205,13 +6710,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>242</v>
-      </c>
-      <c r="G230" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7231,13 +6734,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>29</v>
-      </c>
-      <c r="G231" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7257,13 +6758,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>242</v>
-      </c>
-      <c r="G232" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7283,13 +6782,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
-      </c>
-      <c r="G233" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7309,13 +6806,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
+        <v>230</v>
+      </c>
+      <c r="G234" t="s"/>
+      <c r="H234" t="s">
         <v>242</v>
-      </c>
-      <c r="G234" t="s">
-        <v>243</v>
-      </c>
-      <c r="H234" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7335,13 +6830,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>29</v>
-      </c>
-      <c r="G235" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7361,13 +6854,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>242</v>
-      </c>
-      <c r="G236" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7387,13 +6878,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
-      </c>
-      <c r="G237" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7413,13 +6902,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>242</v>
-      </c>
-      <c r="G238" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7439,13 +6926,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>29</v>
-      </c>
-      <c r="G239" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7465,13 +6950,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>242</v>
-      </c>
-      <c r="G240" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7491,13 +6974,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>29</v>
-      </c>
-      <c r="G241" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7517,13 +6998,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>242</v>
-      </c>
-      <c r="G242" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7543,13 +7022,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>29</v>
-      </c>
-      <c r="G243" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7569,13 +7046,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>242</v>
-      </c>
-      <c r="G244" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7595,13 +7070,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>29</v>
-      </c>
-      <c r="G245" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7621,13 +7094,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>242</v>
-      </c>
-      <c r="G246" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7647,13 +7118,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>29</v>
-      </c>
-      <c r="G247" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7673,13 +7142,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>242</v>
-      </c>
-      <c r="G248" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7699,13 +7166,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>29</v>
-      </c>
-      <c r="G249" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7725,13 +7190,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>242</v>
-      </c>
-      <c r="G250" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7751,13 +7214,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>29</v>
-      </c>
-      <c r="G251" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7777,13 +7238,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>242</v>
-      </c>
-      <c r="G252" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7803,13 +7262,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>29</v>
-      </c>
-      <c r="G253" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7829,13 +7286,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>242</v>
-      </c>
-      <c r="G254" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7855,13 +7310,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>29</v>
-      </c>
-      <c r="G255" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7881,13 +7334,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>242</v>
-      </c>
-      <c r="G256" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7907,13 +7358,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>29</v>
-      </c>
-      <c r="G257" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7933,13 +7382,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>242</v>
-      </c>
-      <c r="G258" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7959,13 +7406,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>29</v>
-      </c>
-      <c r="G259" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7985,13 +7430,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>242</v>
-      </c>
-      <c r="G260" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8011,13 +7454,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>29</v>
-      </c>
-      <c r="G261" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8039,11 +7480,9 @@
       <c r="F262" t="s">
         <v>11</v>
       </c>
-      <c r="G262" t="s">
-        <v>12</v>
-      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8063,13 +7502,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>29</v>
-      </c>
-      <c r="G263" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8091,11 +7528,9 @@
       <c r="F264" t="s">
         <v>11</v>
       </c>
-      <c r="G264" t="s">
-        <v>12</v>
-      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8115,13 +7550,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>29</v>
-      </c>
-      <c r="G265" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8143,11 +7576,9 @@
       <c r="F266" t="s">
         <v>11</v>
       </c>
-      <c r="G266" t="s">
-        <v>12</v>
-      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8167,13 +7598,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>29</v>
-      </c>
-      <c r="G267" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8195,11 +7624,9 @@
       <c r="F268" t="s">
         <v>11</v>
       </c>
-      <c r="G268" t="s">
-        <v>12</v>
-      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
